--- a/resource/excel/squick/Server.xlsx
+++ b/resource/excel/squick/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26136" windowHeight="16260"/>
+    <workbookView windowWidth="22920" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="property" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>DBServer_1</t>
+    <t>DbProxyServer_1</t>
   </si>
   <si>
     <t>8</t>
@@ -163,10 +163,10 @@
     <t>GameServer_16005</t>
   </si>
   <si>
-    <t>Gateway_1</t>
-  </si>
-  <si>
-    <t>GameplayManager_1</t>
+    <t>GatewayServer_1</t>
+  </si>
+  <si>
+    <t>GameplayManagerServer_1</t>
   </si>
 </sst>
 </file>
@@ -1358,17 +1358,17 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="19.5583333333333" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="33.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="24.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="32.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="24.5583333333333" customWidth="1"/>
+    <col min="6" max="6" width="32.5583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="29.55" spans="1:13">
+    <row r="10" ht="30.75" spans="1:13">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
